--- a/autoregfile/examples/output/reverse_config.xlsx
+++ b/autoregfile/examples/output/reverse_config.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,76 +482,111 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>num_write_ports</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
+          <t>bus_protocol</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>apb</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>num_read_ports</t>
+          <t>num_write_ports</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sync_reset</t>
-        </is>
-      </c>
-      <c r="B7" t="b">
-        <v>0</v>
+          <t>num_read_ports</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>reset_value</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0x00000000</t>
-        </is>
+          <t>sync_reset</t>
+        </is>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>byte_enable</t>
-        </is>
-      </c>
-      <c r="B9" t="b">
-        <v>1</v>
+          <t>reset_value</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0x00000000</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>default_reg_type</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ReadWrite</t>
-        </is>
+          <t>byte_enable</t>
+        </is>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>default_reg_type</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ReadWrite</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>implementation</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>instance</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>auto_address</t>
+        </is>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>memory_map</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># 内存映射
+</t>
         </is>
       </c>
     </row>
@@ -566,7 +601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,6 +642,11 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>locked_by</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>type_info</t>
         </is>
       </c>
@@ -642,6 +682,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>{'name': 'ReadWrite', 'description': '标准读写寄存器', 'readable': True, 'writable': True, 'special_behaviors': []}</t>
         </is>
       </c>
@@ -677,6 +722,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>{'name': 'ReadOnly', 'description': '只读寄存器，忽略写操作', 'readable': True, 'writable': False, 'special_behaviors': []}</t>
         </is>
       </c>
@@ -694,7 +744,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ReadClean</t>
+          <t>ReadWrite</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -712,7 +762,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'name': 'ReadClean', 'description': '读取后自动清零的寄存器', 'readable': True, 'writable': True, 'special_behaviors': ['read_clean']}</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{'name': 'ReadWrite', 'description': '标准读写寄存器', 'readable': True, 'writable': True, 'special_behaviors': []}</t>
         </is>
       </c>
     </row>
@@ -746,6 +801,11 @@
         <v>32</v>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>{'name': 'ReadWrite', 'description': '标准读写寄存器', 'readable': True, 'writable': True, 'special_behaviors': []}</t>
         </is>
